--- a/02/hü_170329_moritz_goeckel.xlsx
+++ b/02/hü_170329_moritz_goeckel.xlsx
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
